--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_16_Inventory.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_16_Inventory.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Raab9f78348af4522"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rddae697675bd494d"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 
@@ -187,10 +188,10 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F2" r:id="Rf7123632860f4654" tooltip="Visit Supplier"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F3" r:id="Rb89bd554a981458c" tooltip="Visit Supplier"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F4" r:id="R8710ffa72e80447a" tooltip="Visit Supplier"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F5" r:id="R7d2feb31b5804ed0" tooltip="Visit Supplier"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F2" r:id="Rb4f45c268a944e96" tooltip="Visit Supplier"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F3" r:id="Rc0b42d752ab14dbe" tooltip="Visit Supplier"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F4" r:id="Ree91a04313b74d0a" tooltip="Visit Supplier"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F5" r:id="Re0a324af6b4342a7" tooltip="Visit Supplier"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_16_Inventory.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_16_Inventory.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rddae697675bd494d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Ra48088c598e240d7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -188,10 +188,10 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F2" r:id="Rb4f45c268a944e96" tooltip="Visit Supplier"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F3" r:id="Rc0b42d752ab14dbe" tooltip="Visit Supplier"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F4" r:id="Ree91a04313b74d0a" tooltip="Visit Supplier"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F5" r:id="Re0a324af6b4342a7" tooltip="Visit Supplier"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F2" r:id="Rf20a6f0dd2194cdf" tooltip="Visit Supplier"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F3" r:id="R147dc1e0efec4b10" tooltip="Visit Supplier"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F4" r:id="Ra092ae75700b4428" tooltip="Visit Supplier"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F5" r:id="Rfc25e8db7d234b9e" tooltip="Visit Supplier"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>